--- a/2018ggj.xlsx
+++ b/2018ggj.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="パラメータ高低の分岐点" sheetId="5" r:id="rId5"/>
     <sheet name="PCの変化リスト" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>タイトル画面</t>
     <rPh sb="4" eb="6">
@@ -1199,6 +1200,218 @@
   </si>
   <si>
     <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要エフェクト発注</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期生成時の隕石合体時エフェクト</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>インセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガッタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー時に飲まれる太陽エフェクト</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空気（高）</t>
+    <rPh sb="0" eb="2">
+      <t>クウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCに起こる影響の周りに雷エフェクトを発生させる</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒（高）</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCの表面の凍結テクスチャを紫色にする。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウケツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ムラサキイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCの表面のテクスチャを紫色にする。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ムラサキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水蒸気（雲）のエフェクトの色を紫にする。</t>
+    <rPh sb="0" eb="3">
+      <t>スイジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β以降</t>
+    <rPh sb="1" eb="3">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金属（高）</t>
+    <rPh sb="0" eb="2">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てのパラメータを無視</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCの表面を金属のテクスチャに変更する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷（高）</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衛星（高）</t>
+    <rPh sb="0" eb="2">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCの周りに土星のリングのようなものを回る</t>
+    <rPh sb="3" eb="4">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCの周りに衛星を出す</t>
+    <rPh sb="3" eb="4">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1245,7 +1458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,6 +1468,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,7 +1492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1287,6 +1506,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7019,7 +7241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4DAAE0-B5E0-49A0-BAA7-91D4BC24C453}">
   <dimension ref="B2:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -7080,7 +7302,7 @@
   <dimension ref="B2:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7122,7 +7344,7 @@
   <dimension ref="B2:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7286,7 +7508,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7348,10 +7570,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E67EB0-B3D7-49E9-A037-AD298A5DDF7B}">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7518,9 +7740,175 @@
         <v>76</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C05BDD9-BE45-415E-A4C2-117A9E11F3D6}">
+  <dimension ref="B2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>